--- a/natmiOut/OldD4/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.29193265035414</v>
+        <v>0.295074</v>
       </c>
       <c r="H2">
-        <v>1.29193265035414</v>
+        <v>0.885222</v>
       </c>
       <c r="I2">
-        <v>0.3992334994134776</v>
+        <v>0.05545958198347656</v>
       </c>
       <c r="J2">
-        <v>0.3992334994134776</v>
+        <v>0.05737883381650184</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>159.8677872422493</v>
+        <v>40.784858385648</v>
       </c>
       <c r="R2">
-        <v>159.8677872422493</v>
+        <v>367.063725470832</v>
       </c>
       <c r="S2">
-        <v>0.0843271633835079</v>
+        <v>0.01247410035153987</v>
       </c>
       <c r="T2">
-        <v>0.0843271633835079</v>
+        <v>0.01421043626639727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.29193265035414</v>
+        <v>0.295074</v>
       </c>
       <c r="H3">
-        <v>1.29193265035414</v>
+        <v>0.885222</v>
       </c>
       <c r="I3">
-        <v>0.3992334994134776</v>
+        <v>0.05545958198347656</v>
       </c>
       <c r="J3">
-        <v>0.3992334994134776</v>
+        <v>0.05737883381650184</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>179.0466464219333</v>
+        <v>43.64567301041999</v>
       </c>
       <c r="R3">
-        <v>179.0466464219333</v>
+        <v>392.8110570937799</v>
       </c>
       <c r="S3">
-        <v>0.09444364037648581</v>
+        <v>0.01334908411093222</v>
       </c>
       <c r="T3">
-        <v>0.09444364037648581</v>
+        <v>0.01520721363683447</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.29193265035414</v>
+        <v>0.295074</v>
       </c>
       <c r="H4">
-        <v>1.29193265035414</v>
+        <v>0.885222</v>
       </c>
       <c r="I4">
-        <v>0.3992334994134776</v>
+        <v>0.05545958198347656</v>
       </c>
       <c r="J4">
-        <v>0.3992334994134776</v>
+        <v>0.05737883381650184</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>92.11465816014758</v>
+        <v>21.915918287016</v>
       </c>
       <c r="R4">
-        <v>92.11465816014758</v>
+        <v>197.243264583144</v>
       </c>
       <c r="S4">
-        <v>0.0485886992162853</v>
+        <v>0.006703011235772417</v>
       </c>
       <c r="T4">
-        <v>0.0485886992162853</v>
+        <v>0.007636038774301685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.29193265035414</v>
+        <v>0.295074</v>
       </c>
       <c r="H5">
-        <v>1.29193265035414</v>
+        <v>0.885222</v>
       </c>
       <c r="I5">
-        <v>0.3992334994134776</v>
+        <v>0.05545958198347656</v>
       </c>
       <c r="J5">
-        <v>0.3992334994134776</v>
+        <v>0.05737883381650184</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>109.5905403888793</v>
+        <v>25.03908074623801</v>
       </c>
       <c r="R5">
-        <v>109.5905403888793</v>
+        <v>225.351726716142</v>
       </c>
       <c r="S5">
-        <v>0.05780688883030745</v>
+        <v>0.007658234411052749</v>
       </c>
       <c r="T5">
-        <v>0.05780688883030745</v>
+        <v>0.008724224508740731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.29193265035414</v>
+        <v>0.295074</v>
       </c>
       <c r="H6">
-        <v>1.29193265035414</v>
+        <v>0.885222</v>
       </c>
       <c r="I6">
-        <v>0.3992334994134776</v>
+        <v>0.05545958198347656</v>
       </c>
       <c r="J6">
-        <v>0.3992334994134776</v>
+        <v>0.05737883381650184</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>216.2488972539498</v>
+        <v>49.943073123567</v>
       </c>
       <c r="R6">
-        <v>216.2488972539498</v>
+        <v>299.658438741402</v>
       </c>
       <c r="S6">
-        <v>0.1140671076068912</v>
+        <v>0.01527515187417931</v>
       </c>
       <c r="T6">
-        <v>0.1140671076068912</v>
+        <v>0.01160092063022768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.78120065968861</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H7">
-        <v>0.78120065968861</v>
+        <v>5.795324</v>
       </c>
       <c r="I7">
-        <v>0.2414069131437379</v>
+        <v>0.3630798223483028</v>
       </c>
       <c r="J7">
-        <v>0.2414069131437379</v>
+        <v>0.3756446775032531</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>96.66821317842648</v>
+        <v>267.0081274967716</v>
       </c>
       <c r="R7">
-        <v>96.66821317842648</v>
+        <v>2403.073147470944</v>
       </c>
       <c r="S7">
-        <v>0.05099061135021842</v>
+        <v>0.08166477239120522</v>
       </c>
       <c r="T7">
-        <v>0.05099061135021842</v>
+        <v>0.09303212340534071</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.78120065968861</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H8">
-        <v>0.78120065968861</v>
+        <v>5.795324</v>
       </c>
       <c r="I8">
-        <v>0.2414069131437379</v>
+        <v>0.3630798223483028</v>
       </c>
       <c r="J8">
-        <v>0.2414069131437379</v>
+        <v>0.3756446775032531</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>108.2652089189839</v>
+        <v>285.7371555309733</v>
       </c>
       <c r="R8">
-        <v>108.2652089189839</v>
+        <v>2571.63439977876</v>
       </c>
       <c r="S8">
-        <v>0.05710780213293658</v>
+        <v>0.08739306922569046</v>
       </c>
       <c r="T8">
-        <v>0.05710780213293658</v>
+        <v>0.09955777213249793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.78120065968861</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H9">
-        <v>0.78120065968861</v>
+        <v>5.795324</v>
       </c>
       <c r="I9">
-        <v>0.2414069131437379</v>
+        <v>0.3630798223483028</v>
       </c>
       <c r="J9">
-        <v>0.2414069131437379</v>
+        <v>0.3756446775032531</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>55.69952249598512</v>
+        <v>143.4779605915609</v>
       </c>
       <c r="R9">
-        <v>55.69952249598512</v>
+        <v>1291.301645324048</v>
       </c>
       <c r="S9">
-        <v>0.02938042000159122</v>
+        <v>0.04388291511840142</v>
       </c>
       <c r="T9">
-        <v>0.02938042000159122</v>
+        <v>0.04999120985881635</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.78120065968861</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H10">
-        <v>0.78120065968861</v>
+        <v>5.795324</v>
       </c>
       <c r="I10">
-        <v>0.2414069131437379</v>
+        <v>0.3630798223483028</v>
       </c>
       <c r="J10">
-        <v>0.2414069131437379</v>
+        <v>0.3756446775032531</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>66.26676895576259</v>
+        <v>163.9245133837738</v>
       </c>
       <c r="R10">
-        <v>66.26676895576259</v>
+        <v>1475.320620453964</v>
       </c>
       <c r="S10">
-        <v>0.03495443797043411</v>
+        <v>0.05013651906527386</v>
       </c>
       <c r="T10">
-        <v>0.03495443797043411</v>
+        <v>0.05711528596995259</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.78120065968861</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H11">
-        <v>0.78120065968861</v>
+        <v>5.795324</v>
       </c>
       <c r="I11">
-        <v>0.2414069131437379</v>
+        <v>0.3630798223483028</v>
       </c>
       <c r="J11">
-        <v>0.2414069131437379</v>
+        <v>0.3756446775032531</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>130.7605169243246</v>
+        <v>326.964637465814</v>
       </c>
       <c r="R11">
-        <v>130.7605169243246</v>
+        <v>1961.787824794884</v>
       </c>
       <c r="S11">
-        <v>0.06897364168855763</v>
+        <v>0.1000025465477319</v>
       </c>
       <c r="T11">
-        <v>0.06897364168855763</v>
+        <v>0.0759482861366455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.16289936820731</v>
+        <v>1.349899333333333</v>
       </c>
       <c r="H12">
-        <v>1.16289936820731</v>
+        <v>4.049697999999999</v>
       </c>
       <c r="I12">
-        <v>0.3593595874427843</v>
+        <v>0.2537155179596994</v>
       </c>
       <c r="J12">
-        <v>0.3593595874427843</v>
+        <v>0.2624956774108866</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>143.9008053010746</v>
+        <v>186.5818511454098</v>
       </c>
       <c r="R12">
-        <v>143.9008053010746</v>
+        <v>1679.236660308688</v>
       </c>
       <c r="S12">
-        <v>0.07590488946503134</v>
+        <v>0.05706629438200849</v>
       </c>
       <c r="T12">
-        <v>0.07590488946503134</v>
+        <v>0.06500965331539038</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.16289936820731</v>
+        <v>1.349899333333333</v>
       </c>
       <c r="H13">
-        <v>1.16289936820731</v>
+        <v>4.049697999999999</v>
       </c>
       <c r="I13">
-        <v>0.3593595874427843</v>
+        <v>0.2537155179596994</v>
       </c>
       <c r="J13">
-        <v>0.3593595874427843</v>
+        <v>0.2624956774108866</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>161.1641535235055</v>
+        <v>199.6694554574466</v>
       </c>
       <c r="R13">
-        <v>161.1641535235055</v>
+        <v>1797.02509911702</v>
       </c>
       <c r="S13">
-        <v>0.08501097150451921</v>
+        <v>0.06106915465936678</v>
       </c>
       <c r="T13">
-        <v>0.08501097150451921</v>
+        <v>0.06956969285745415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.16289936820731</v>
+        <v>1.349899333333333</v>
       </c>
       <c r="H14">
-        <v>1.16289936820731</v>
+        <v>4.049697999999999</v>
       </c>
       <c r="I14">
-        <v>0.3593595874427843</v>
+        <v>0.2537155179596994</v>
       </c>
       <c r="J14">
-        <v>0.3593595874427843</v>
+        <v>0.2624956774108866</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>82.91459910677588</v>
+        <v>100.2605566231884</v>
       </c>
       <c r="R14">
-        <v>82.91459910677588</v>
+        <v>902.3450096086958</v>
       </c>
       <c r="S14">
-        <v>0.04373584614116269</v>
+        <v>0.03066481763386482</v>
       </c>
       <c r="T14">
-        <v>0.04373584614116269</v>
+        <v>0.03493321556876352</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.16289936820731</v>
+        <v>1.349899333333333</v>
       </c>
       <c r="H15">
-        <v>1.16289936820731</v>
+        <v>4.049697999999999</v>
       </c>
       <c r="I15">
-        <v>0.3593595874427843</v>
+        <v>0.2537155179596994</v>
       </c>
       <c r="J15">
-        <v>0.3593595874427843</v>
+        <v>0.2624956774108866</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>98.64505718993273</v>
+        <v>114.5483451833309</v>
       </c>
       <c r="R15">
-        <v>98.64505718993273</v>
+        <v>1030.935106649978</v>
       </c>
       <c r="S15">
-        <v>0.05203335830266977</v>
+        <v>0.03503475577648487</v>
       </c>
       <c r="T15">
-        <v>0.05203335830266977</v>
+        <v>0.0399114284830227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.349899333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.049697999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.2537155179596994</v>
+      </c>
+      <c r="J16">
+        <v>0.2624956774108866</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>228.478690478053</v>
+      </c>
+      <c r="R16">
+        <v>1370.872142868318</v>
+      </c>
+      <c r="S16">
+        <v>0.06988049550797448</v>
+      </c>
+      <c r="T16">
+        <v>0.05307168718625585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.209880333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.629641</v>
+      </c>
+      <c r="I17">
+        <v>0.227398745862719</v>
+      </c>
+      <c r="J17">
+        <v>0.235268178776128</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>167.2285530361218</v>
+      </c>
+      <c r="R17">
+        <v>1505.056977325096</v>
+      </c>
+      <c r="S17">
+        <v>0.05114706375808955</v>
+      </c>
+      <c r="T17">
+        <v>0.05826649371615535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.209880333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.629641</v>
+      </c>
+      <c r="I18">
+        <v>0.227398745862719</v>
+      </c>
+      <c r="J18">
+        <v>0.235268178776128</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>178.9586388851767</v>
+      </c>
+      <c r="R18">
+        <v>1610.62774996659</v>
+      </c>
+      <c r="S18">
+        <v>0.05473472530222716</v>
+      </c>
+      <c r="T18">
+        <v>0.06235354082028408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.209880333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.629641</v>
+      </c>
+      <c r="I19">
+        <v>0.227398745862719</v>
+      </c>
+      <c r="J19">
+        <v>0.235268178776128</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>89.86097901679244</v>
+      </c>
+      <c r="R19">
+        <v>808.748811151132</v>
+      </c>
+      <c r="S19">
+        <v>0.02748409371301237</v>
+      </c>
+      <c r="T19">
+        <v>0.03130974988510807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.209880333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.629641</v>
+      </c>
+      <c r="I20">
+        <v>0.227398745862719</v>
+      </c>
+      <c r="J20">
+        <v>0.235268178776128</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>102.6667593878779</v>
+      </c>
+      <c r="R20">
+        <v>924.0008344909012</v>
+      </c>
+      <c r="S20">
+        <v>0.03140075778275722</v>
+      </c>
+      <c r="T20">
+        <v>0.03577159511414111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.16289936820731</v>
-      </c>
-      <c r="H16">
-        <v>1.16289936820731</v>
-      </c>
-      <c r="I16">
-        <v>0.3593595874427843</v>
-      </c>
-      <c r="J16">
-        <v>0.3593595874427843</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>194.6507861096413</v>
-      </c>
-      <c r="R16">
-        <v>194.6507861096413</v>
-      </c>
-      <c r="S16">
-        <v>0.1026745220294014</v>
-      </c>
-      <c r="T16">
-        <v>0.1026745220294014</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.209880333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.629641</v>
+      </c>
+      <c r="I21">
+        <v>0.227398745862719</v>
+      </c>
+      <c r="J21">
+        <v>0.235268178776128</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>204.7796212422385</v>
+      </c>
+      <c r="R21">
+        <v>1228.677727453431</v>
+      </c>
+      <c r="S21">
+        <v>0.06263210530663275</v>
+      </c>
+      <c r="T21">
+        <v>0.04756679924043938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.533895</v>
+      </c>
+      <c r="H22">
+        <v>1.06779</v>
+      </c>
+      <c r="I22">
+        <v>0.1003463318458021</v>
+      </c>
+      <c r="J22">
+        <v>0.06921263249323052</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>73.79447856404001</v>
+      </c>
+      <c r="R22">
+        <v>442.76687138424</v>
+      </c>
+      <c r="S22">
+        <v>0.02257013429575422</v>
+      </c>
+      <c r="T22">
+        <v>0.01714119366768601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.533895</v>
+      </c>
+      <c r="H23">
+        <v>1.06779</v>
+      </c>
+      <c r="I23">
+        <v>0.1003463318458021</v>
+      </c>
+      <c r="J23">
+        <v>0.06921263249323052</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>78.97072121535</v>
+      </c>
+      <c r="R23">
+        <v>473.8243272921</v>
+      </c>
+      <c r="S23">
+        <v>0.02415329463594271</v>
+      </c>
+      <c r="T23">
+        <v>0.01834354619437326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.533895</v>
+      </c>
+      <c r="H24">
+        <v>1.06779</v>
+      </c>
+      <c r="I24">
+        <v>0.1003463318458021</v>
+      </c>
+      <c r="J24">
+        <v>0.06921263249323052</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>39.65377903118</v>
+      </c>
+      <c r="R24">
+        <v>237.92267418708</v>
+      </c>
+      <c r="S24">
+        <v>0.01212815830511233</v>
+      </c>
+      <c r="T24">
+        <v>0.009210893812864565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.533895</v>
+      </c>
+      <c r="H25">
+        <v>1.06779</v>
+      </c>
+      <c r="I25">
+        <v>0.1003463318458021</v>
+      </c>
+      <c r="J25">
+        <v>0.06921263249323052</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>45.30470327786501</v>
+      </c>
+      <c r="R25">
+        <v>271.8282196671901</v>
+      </c>
+      <c r="S25">
+        <v>0.01385650060964032</v>
+      </c>
+      <c r="T25">
+        <v>0.01052350674541332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.533895</v>
+      </c>
+      <c r="H26">
+        <v>1.06779</v>
+      </c>
+      <c r="I26">
+        <v>0.1003463318458021</v>
+      </c>
+      <c r="J26">
+        <v>0.06921263249323052</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>90.3649831069725</v>
+      </c>
+      <c r="R26">
+        <v>361.45993242789</v>
+      </c>
+      <c r="S26">
+        <v>0.02763824399935258</v>
+      </c>
+      <c r="T26">
+        <v>0.01399349207289337</v>
       </c>
     </row>
   </sheetData>
